--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -17,7 +17,7 @@
     <t/>
   </si>
   <si>
-    <t>ab_Ab08-06-38@gmail.com</t>
+    <t>ab_Ab11-45-03@gmail.com</t>
   </si>
 </sst>
 </file>
